--- a/other/data.xlsx
+++ b/other/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nontosan\Desktop\404_Not_Found\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nontosan\Desktop\404_NOT_FOUND\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E77052-9E9E-4BD8-92D6-DF521911F6F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAEA14F-9C91-442A-8122-848888C7198C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5664D69C-61D4-4AFE-8C7A-379EFA28226A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5664D69C-61D4-4AFE-8C7A-379EFA28226A}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -41,18 +41,9 @@
     <t>#</t>
   </si>
   <si>
-    <t>Domains</t>
-  </si>
-  <si>
     <t>Host IP</t>
   </si>
   <si>
-    <t>Local IP</t>
-  </si>
-  <si>
-    <t>MAC address</t>
-  </si>
-  <si>
     <t>youtube.com</t>
   </si>
   <si>
@@ -494,159 +485,6 @@
     <t>8b:aa:aa:55:8b:ae</t>
   </si>
   <si>
-    <t>10.4.220.34</t>
-  </si>
-  <si>
-    <t>10.59.51.157</t>
-  </si>
-  <si>
-    <t>10.152.248.249</t>
-  </si>
-  <si>
-    <t>10.172.44.149</t>
-  </si>
-  <si>
-    <t>10.160.225.159</t>
-  </si>
-  <si>
-    <t>10.93.246.13</t>
-  </si>
-  <si>
-    <t>10.103.130.128</t>
-  </si>
-  <si>
-    <t>10.182.126.71</t>
-  </si>
-  <si>
-    <t>10.145.125.84</t>
-  </si>
-  <si>
-    <t>10.108.241.70</t>
-  </si>
-  <si>
-    <t>10.32.238.105</t>
-  </si>
-  <si>
-    <t>10.28.115.163</t>
-  </si>
-  <si>
-    <t>10.183.166.247</t>
-  </si>
-  <si>
-    <t>10.59.67.251</t>
-  </si>
-  <si>
-    <t>10.64.16.182</t>
-  </si>
-  <si>
-    <t>10.213.79.142</t>
-  </si>
-  <si>
-    <t>10.46.136.40</t>
-  </si>
-  <si>
-    <t>10.188.175.55</t>
-  </si>
-  <si>
-    <t>10.54.220.111</t>
-  </si>
-  <si>
-    <t>10.135.207.144</t>
-  </si>
-  <si>
-    <t>10.158.133.147</t>
-  </si>
-  <si>
-    <t>10.13.230.53</t>
-  </si>
-  <si>
-    <t>10.70.115.128</t>
-  </si>
-  <si>
-    <t>10.94.73.20</t>
-  </si>
-  <si>
-    <t>10.12.219.173</t>
-  </si>
-  <si>
-    <t>10.16.29.72</t>
-  </si>
-  <si>
-    <t>10.24.36.249</t>
-  </si>
-  <si>
-    <t>10.23.9.229</t>
-  </si>
-  <si>
-    <t>10.24.211.202</t>
-  </si>
-  <si>
-    <t>10.25.97.245</t>
-  </si>
-  <si>
-    <t>10.29.15.84</t>
-  </si>
-  <si>
-    <t>10.30.41.242</t>
-  </si>
-  <si>
-    <t>10.19.120.46</t>
-  </si>
-  <si>
-    <t>10.28.27.224</t>
-  </si>
-  <si>
-    <t>10.16.222.245</t>
-  </si>
-  <si>
-    <t>10.28.52.142</t>
-  </si>
-  <si>
-    <t>10.16.250.160</t>
-  </si>
-  <si>
-    <t>10.18.246.59</t>
-  </si>
-  <si>
-    <t>10.28.132.227</t>
-  </si>
-  <si>
-    <t>10.26.232.139</t>
-  </si>
-  <si>
-    <t>10.25.235.158</t>
-  </si>
-  <si>
-    <t>10.30.137.43</t>
-  </si>
-  <si>
-    <t>10.29.140.246</t>
-  </si>
-  <si>
-    <t>10.21.124.120</t>
-  </si>
-  <si>
-    <t>10.28.227.25</t>
-  </si>
-  <si>
-    <t>10.25.132.76</t>
-  </si>
-  <si>
-    <t>10.22.223.203</t>
-  </si>
-  <si>
-    <t>10.26.239.229</t>
-  </si>
-  <si>
-    <t>10.22.85.203</t>
-  </si>
-  <si>
-    <t>10.17.46.31</t>
-  </si>
-  <si>
-    <t>10.30.135.69</t>
-  </si>
-  <si>
     <t>netflix.com</t>
   </si>
   <si>
@@ -663,6 +501,168 @@
   </si>
   <si>
     <t>roblox.com</t>
+  </si>
+  <si>
+    <t>10.0.5.2</t>
+  </si>
+  <si>
+    <t>10.0.5.3</t>
+  </si>
+  <si>
+    <t>10.0.5.4</t>
+  </si>
+  <si>
+    <t>10.0.5.5</t>
+  </si>
+  <si>
+    <t>10.0.5.6</t>
+  </si>
+  <si>
+    <t>10.0.6.2</t>
+  </si>
+  <si>
+    <t>10.0.6.3</t>
+  </si>
+  <si>
+    <t>10.0.6.4</t>
+  </si>
+  <si>
+    <t>10.0.6.5</t>
+  </si>
+  <si>
+    <t>10.0.6.6</t>
+  </si>
+  <si>
+    <t>10.0.8.2</t>
+  </si>
+  <si>
+    <t>10.0.8.3</t>
+  </si>
+  <si>
+    <t>10.0.8.4</t>
+  </si>
+  <si>
+    <t>10.0.8.5</t>
+  </si>
+  <si>
+    <t>10.0.8.6</t>
+  </si>
+  <si>
+    <t>10.0.7.2</t>
+  </si>
+  <si>
+    <t>10.0.7.3</t>
+  </si>
+  <si>
+    <t>10.0.7.4</t>
+  </si>
+  <si>
+    <t>10.0.7.5</t>
+  </si>
+  <si>
+    <t>10.0.7.6</t>
+  </si>
+  <si>
+    <t>10.0.10.2</t>
+  </si>
+  <si>
+    <t>10.0.10.3</t>
+  </si>
+  <si>
+    <t>10.0.10.4</t>
+  </si>
+  <si>
+    <t>10.0.10.5</t>
+  </si>
+  <si>
+    <t>10.0.10.6</t>
+  </si>
+  <si>
+    <t>10.0.4.2</t>
+  </si>
+  <si>
+    <t>10.0.4.3</t>
+  </si>
+  <si>
+    <t>10.0.4.4</t>
+  </si>
+  <si>
+    <t>10.0.4.5</t>
+  </si>
+  <si>
+    <t>10.0.4.6</t>
+  </si>
+  <si>
+    <t>10.0.1.2</t>
+  </si>
+  <si>
+    <t>10.0.1.3</t>
+  </si>
+  <si>
+    <t>10.0.1.4</t>
+  </si>
+  <si>
+    <t>10.0.1.5</t>
+  </si>
+  <si>
+    <t>10.0.1.6</t>
+  </si>
+  <si>
+    <t>10.0.2.3</t>
+  </si>
+  <si>
+    <t>10.0.2.4</t>
+  </si>
+  <si>
+    <t>10.0.2.5</t>
+  </si>
+  <si>
+    <t>10.0.2.6</t>
+  </si>
+  <si>
+    <t>10.0.2.7</t>
+  </si>
+  <si>
+    <t>10.0.3.2</t>
+  </si>
+  <si>
+    <t>10.0.9.3</t>
+  </si>
+  <si>
+    <t>10.0.9.4</t>
+  </si>
+  <si>
+    <t>10.0.9.5</t>
+  </si>
+  <si>
+    <t>10.0.9.6</t>
+  </si>
+  <si>
+    <t>10.0.9.7</t>
+  </si>
+  <si>
+    <t>10.0.3.4</t>
+  </si>
+  <si>
+    <t>10.0.3.3</t>
+  </si>
+  <si>
+    <t>10.0.3.5</t>
+  </si>
+  <si>
+    <t>10.0.3.6</t>
+  </si>
+  <si>
+    <t>10.0.3.7</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>local_ip</t>
+  </si>
+  <si>
+    <t>mac</t>
   </si>
 </sst>
 </file>
@@ -714,64 +714,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -842,20 +793,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="206" name=" Straight Arrow Connector 205">
+        <xdr:cNvPr id="334" name=" Straight Arrow Connector 333">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C513F624-1FE1-49E9-90E1-80A5EBC9277B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52436FA1-3EA8-4B94-B58E-1CDC41000574}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,13 +814,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="90488"/>
-          <a:ext cx="11458575" cy="6877050"/>
+          <a:off x="1341120" y="87630"/>
+          <a:ext cx="12222480" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -899,20 +850,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="207" name=" Straight Arrow Connector 206">
+        <xdr:cNvPr id="335" name=" Straight Arrow Connector 334">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965CFF2A-2C84-4F1B-B1D6-2F4911386CFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C753AE93-F229-4ADD-AF92-7801EE8DD93A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,13 +871,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="271463"/>
-          <a:ext cx="11458575" cy="1809750"/>
+          <a:off x="1341120" y="262890"/>
+          <a:ext cx="12222480" cy="4030980"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -956,20 +907,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="208" name=" Straight Arrow Connector 207">
+        <xdr:cNvPr id="336" name=" Straight Arrow Connector 335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E18750-AE4D-47D2-9BE1-02B2895694F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE63193-4E30-4A8E-9EF7-A0D9366B2B92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,13 +928,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="452438"/>
-          <a:ext cx="11458575" cy="7239000"/>
+          <a:off x="1341120" y="438150"/>
+          <a:ext cx="12222480" cy="6835140"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1013,20 +964,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="209" name=" Straight Arrow Connector 208">
+        <xdr:cNvPr id="337" name=" Straight Arrow Connector 336">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA77ACFB-455F-4537-A267-9A3F1426AFD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A91245F-5B6B-4501-9071-F487123AE300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,13 +985,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="633413"/>
-          <a:ext cx="11458575" cy="6696075"/>
+          <a:off x="1341120" y="613410"/>
+          <a:ext cx="12222480" cy="2628900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1069,35 +1020,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="210" name=" Straight Arrow Connector 209">
+        <xdr:cNvPr id="338" name=" Straight Arrow Connector 337">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02007B0-6D3D-45F0-A129-6B4C30D3E834}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABD63FB-179A-48D5-870E-D9D8ABBDB8E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1333500" y="90488"/>
-          <a:ext cx="11458575" cy="723900"/>
+        <a:xfrm>
+          <a:off x="1341120" y="788670"/>
+          <a:ext cx="12222480" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1126,35 +1077,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="211" name=" Straight Arrow Connector 210">
+        <xdr:cNvPr id="339" name=" Straight Arrow Connector 338">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BB68AF-8D9D-4CC0-8C47-53F45779AA73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72759318-AF64-4F64-A65F-821778BE36B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="995363"/>
-          <a:ext cx="11458575" cy="3981450"/>
+        <a:xfrm flipV="1">
+          <a:off x="1341120" y="788670"/>
+          <a:ext cx="12222480" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1184,20 +1135,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="212" name=" Straight Arrow Connector 211">
+        <xdr:cNvPr id="340" name=" Straight Arrow Connector 339">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06BE8DC-33F8-4945-B508-D1206F11F5F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18D3B62-FF07-44E4-8C6A-2033AA9C0E71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,13 +1156,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="1176338"/>
-          <a:ext cx="11458575" cy="1809750"/>
+          <a:off x="1341120" y="1139190"/>
+          <a:ext cx="12222480" cy="3329940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1241,20 +1192,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="213" name=" Straight Arrow Connector 212">
+        <xdr:cNvPr id="341" name=" Straight Arrow Connector 340">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF33979B-44BC-49EA-A124-4A1B4E6A9EE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41A6CC6-468B-4C51-B1E9-85EFA7016F61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,13 +1213,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="1357313"/>
-          <a:ext cx="11458575" cy="361950"/>
+          <a:off x="1341120" y="1314450"/>
+          <a:ext cx="12222480" cy="5433060"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1298,20 +1249,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="214" name=" Straight Arrow Connector 213">
+        <xdr:cNvPr id="342" name=" Straight Arrow Connector 341">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740A9B2D-8E02-42A8-A964-321975BD939B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F950975-8DC4-4739-81D6-B00826989D62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,13 +1270,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="1538288"/>
-          <a:ext cx="11458575" cy="361950"/>
+          <a:off x="1341120" y="1489710"/>
+          <a:ext cx="12222480" cy="2103120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1354,35 +1305,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="215" name=" Straight Arrow Connector 214">
+        <xdr:cNvPr id="343" name=" Straight Arrow Connector 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91428ED1-6916-46E1-8549-C726F5E1AEF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9C7378-2EFD-4E9C-AC17-AD6CEA0C6ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1333500" y="633413"/>
-          <a:ext cx="11458575" cy="1085850"/>
+        <a:xfrm>
+          <a:off x="1341120" y="1664970"/>
+          <a:ext cx="12222480" cy="5958840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1412,20 +1363,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="216" name=" Straight Arrow Connector 215">
+        <xdr:cNvPr id="344" name=" Straight Arrow Connector 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080949A0-3721-44D8-A9FA-357590CD11B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56744662-7061-4476-8A3E-9537A422C931}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,13 +1384,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="1900238"/>
-          <a:ext cx="11458575" cy="3800475"/>
+          <a:off x="1341120" y="1840230"/>
+          <a:ext cx="12222480" cy="5082540"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1469,20 +1420,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name=" Straight Arrow Connector 216">
+        <xdr:cNvPr id="345" name=" Straight Arrow Connector 344">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623445C2-22F6-4340-BDFF-92B56ED870A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8BA177-4D09-4807-B0E2-34188B9D1324}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,13 +1441,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="2081213"/>
-          <a:ext cx="11458575" cy="4705350"/>
+          <a:off x="1341120" y="2015490"/>
+          <a:ext cx="12222480" cy="1752600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1525,35 +1476,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="218" name=" Straight Arrow Connector 217">
+        <xdr:cNvPr id="346" name=" Straight Arrow Connector 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806F8249-FB7F-4701-BAE3-9FE5A367CC11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B4BEE4-1C96-47A6-8269-96E8236F094C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="2262188"/>
-          <a:ext cx="11458575" cy="542925"/>
+        <a:xfrm flipV="1">
+          <a:off x="1341120" y="262890"/>
+          <a:ext cx="12222480" cy="1927860"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1583,20 +1534,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="219" name=" Straight Arrow Connector 218">
+        <xdr:cNvPr id="347" name=" Straight Arrow Connector 346">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2EC95ED-2E6A-449A-BF9F-B8243006688C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A650D5B-76DB-4B89-BCE2-EC2D8DD2FFD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,13 +1555,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="2443163"/>
-          <a:ext cx="11458575" cy="1266825"/>
+          <a:off x="1341120" y="2366010"/>
+          <a:ext cx="12222480" cy="3680460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1640,20 +1591,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="220" name=" Straight Arrow Connector 219">
+        <xdr:cNvPr id="348" name=" Straight Arrow Connector 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC43A264-EC61-4CAE-81D0-EA1A9AF71EAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E40861-AF63-4912-B456-F9C044E7675E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,13 +1612,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="2624138"/>
-          <a:ext cx="11458575" cy="2895600"/>
+          <a:off x="1341120" y="2541270"/>
+          <a:ext cx="12222480" cy="6309360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1696,21 +1647,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="221" name=" Straight Arrow Connector 220">
+        <xdr:cNvPr id="349" name=" Straight Arrow Connector 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE478754-4412-467D-B57C-7A445C6D7B8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D278C1-DD06-4190-A0B5-DA99027F2920}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,13 +1669,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="271463"/>
-          <a:ext cx="11458575" cy="2533650"/>
+          <a:off x="1341120" y="2366010"/>
+          <a:ext cx="12222480" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1753,21 +1704,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="222" name=" Straight Arrow Connector 221">
+        <xdr:cNvPr id="350" name=" Straight Arrow Connector 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5056F427-13A4-4C1B-906F-0B08C9E256B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34928FFD-4EEA-4A61-8887-D23B362DCF43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,13 +1726,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="2443163"/>
-          <a:ext cx="11458575" cy="542925"/>
+          <a:off x="1341120" y="1314450"/>
+          <a:ext cx="12222480" cy="1577340"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1810,35 +1761,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="223" name=" Straight Arrow Connector 222">
+        <xdr:cNvPr id="351" name=" Straight Arrow Connector 350">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7DC445-5887-49D3-B9F2-05DB7AF82E9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959F49B9-D1F3-4ADF-8C43-52267C7B215F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="3167063"/>
-          <a:ext cx="11458575" cy="723900"/>
+        <a:xfrm flipV="1">
+          <a:off x="1341120" y="2716530"/>
+          <a:ext cx="12222480" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1868,20 +1819,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="224" name=" Straight Arrow Connector 223">
+        <xdr:cNvPr id="352" name=" Straight Arrow Connector 351">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4031B1E2-EB11-4DCD-B9D4-C7613BFB9B49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D03CD9E-3291-4AD9-9648-CECF076FA1FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1889,13 +1840,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="3348038"/>
-          <a:ext cx="11458575" cy="1809750"/>
+          <a:off x="1341120" y="3242310"/>
+          <a:ext cx="12222480" cy="5257800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1925,20 +1876,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="225" name=" Straight Arrow Connector 224">
+        <xdr:cNvPr id="353" name=" Straight Arrow Connector 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7490C566-0F3F-466B-8D06-57204F891DB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A3A413-11B6-45A2-9622-D3933E334257}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,13 +1897,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="3529013"/>
-          <a:ext cx="11458575" cy="2533650"/>
+          <a:off x="1341120" y="3417570"/>
+          <a:ext cx="12222480" cy="2453640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1981,35 +1932,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="226" name=" Straight Arrow Connector 225">
+        <xdr:cNvPr id="354" name=" Straight Arrow Connector 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5625921-0305-4B4B-B37E-48F51A9AEBAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA28547-A1B0-494A-9496-FDFE4D063F2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="3709988"/>
-          <a:ext cx="11458575" cy="3438525"/>
+        <a:xfrm flipV="1">
+          <a:off x="1341120" y="3417570"/>
+          <a:ext cx="12222480" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2039,20 +1990,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="227" name=" Straight Arrow Connector 226">
+        <xdr:cNvPr id="355" name=" Straight Arrow Connector 354">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D8F9A8-61C9-4CB2-BEA2-D814F116C58E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868A02E1-D1A3-4132-8E11-CD9E9657F674}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,13 +2011,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="3890963"/>
-          <a:ext cx="11458575" cy="4886325"/>
+          <a:off x="1341120" y="3768090"/>
+          <a:ext cx="12222480" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2095,35 +2046,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="228" name=" Straight Arrow Connector 227">
+        <xdr:cNvPr id="356" name=" Straight Arrow Connector 355">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D893FE3-DBAE-4D6A-A094-0E8D947DEBE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2909E318-C064-46F2-A076-0A2C38755A97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1333500" y="3348038"/>
-          <a:ext cx="11458575" cy="723900"/>
+        <a:xfrm>
+          <a:off x="1341120" y="3943350"/>
+          <a:ext cx="12222480" cy="2628900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2152,21 +2103,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="229" name=" Straight Arrow Connector 228">
+        <xdr:cNvPr id="357" name=" Straight Arrow Connector 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FCB1B6-97C2-4AC7-B4A7-4EA36EC76B66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72B7DBA-BD6C-4DC0-92FC-B91023F8AFF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2174,13 +2125,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="452438"/>
-          <a:ext cx="11458575" cy="3800475"/>
+          <a:off x="1341120" y="613410"/>
+          <a:ext cx="12222480" cy="3505200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2209,35 +2160,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="230" name=" Straight Arrow Connector 229">
+        <xdr:cNvPr id="358" name=" Straight Arrow Connector 357">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B5C941-6B5E-40CF-B05C-D84A15586980}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6041649-F38D-498D-B802-40572821E636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="4433888"/>
-          <a:ext cx="11458575" cy="2171700"/>
+        <a:xfrm flipV="1">
+          <a:off x="1341120" y="2891790"/>
+          <a:ext cx="12222480" cy="1402080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2266,35 +2217,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="231" name=" Straight Arrow Connector 230">
+        <xdr:cNvPr id="359" name=" Straight Arrow Connector 358">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E70C5DD-3C3C-4FA9-B184-3F8D11D47182}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E401F1-8255-4EDF-82A5-7805F5E50014}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="4614863"/>
-          <a:ext cx="11458575" cy="3800475"/>
+        <a:xfrm flipV="1">
+          <a:off x="1341120" y="1489710"/>
+          <a:ext cx="12222480" cy="2979420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2324,20 +2275,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="232" name=" Straight Arrow Connector 231">
+        <xdr:cNvPr id="360" name=" Straight Arrow Connector 359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FF0FF3-BB8F-404F-8D73-B60F3B932238}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD6359B-87E6-40C0-B835-A2A9B60829EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,13 +2296,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="4795838"/>
-          <a:ext cx="11458575" cy="3257550"/>
+          <a:off x="1341120" y="4644390"/>
+          <a:ext cx="12222480" cy="701040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2380,35 +2331,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="233" name=" Straight Arrow Connector 232">
+        <xdr:cNvPr id="361" name=" Straight Arrow Connector 360">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EEA0CE-FBA4-4DDE-A10F-BB95448DF917}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48D6725-6101-4517-8997-0A0021324272}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="4976813"/>
-          <a:ext cx="11458575" cy="4162425"/>
+        <a:xfrm flipV="1">
+          <a:off x="1341120" y="2015490"/>
+          <a:ext cx="12222480" cy="2804160"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2437,35 +2388,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="234" name=" Straight Arrow Connector 233">
+        <xdr:cNvPr id="362" name=" Straight Arrow Connector 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE6B075-5A1B-4034-8DE2-C834844A0EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EDD2B83-0FC1-4D0B-A95C-BF8A18A8E333}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1333500" y="4795838"/>
-          <a:ext cx="11458575" cy="361950"/>
+        <a:xfrm>
+          <a:off x="1341120" y="4994910"/>
+          <a:ext cx="12222480" cy="1402080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2494,21 +2445,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="235" name=" Straight Arrow Connector 234">
+        <xdr:cNvPr id="363" name=" Straight Arrow Connector 362">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C617AA6-DB22-4D9F-A067-8D75390CFE9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BCCFFD-8F97-40CB-8D84-5681F5E4E2D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,13 +2467,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="1176338"/>
-          <a:ext cx="11458575" cy="4162425"/>
+          <a:off x="1341120" y="963930"/>
+          <a:ext cx="12222480" cy="4206240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2552,20 +2503,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="236" name=" Straight Arrow Connector 235">
+        <xdr:cNvPr id="364" name=" Straight Arrow Connector 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600FD480-ECBE-4B95-B22B-068575E4AFB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E77FA8-6F94-4266-A20D-90C40FFCDA86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,13 +2524,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="5519738"/>
-          <a:ext cx="11458575" cy="723900"/>
+          <a:off x="1341120" y="5345430"/>
+          <a:ext cx="12222480" cy="2979420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2609,20 +2560,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="237" name=" Straight Arrow Connector 236">
+        <xdr:cNvPr id="365" name=" Straight Arrow Connector 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A75DFCE4-8242-4DFD-87E0-2D81388B4020}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C0C75C-6909-442A-9867-CA268623A562}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,13 +2581,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="5700713"/>
-          <a:ext cx="11458575" cy="1809750"/>
+          <a:off x="1341120" y="5520690"/>
+          <a:ext cx="12222480" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2665,21 +2616,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="238" name=" Straight Arrow Connector 237">
+        <xdr:cNvPr id="366" name=" Straight Arrow Connector 365">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E246BC94-1511-47F7-BBE5-EDAA23967191}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320121F5-3361-4D90-A7F8-2ADF28D31B93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,13 +2638,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="1538288"/>
-          <a:ext cx="11458575" cy="4343400"/>
+          <a:off x="1341120" y="3067050"/>
+          <a:ext cx="12222480" cy="2628900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2722,35 +2673,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="239" name=" Straight Arrow Connector 238">
+        <xdr:cNvPr id="367" name=" Straight Arrow Connector 366">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36476FFA-88EE-4BAE-8F56-DBAAAFC9882E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE4070C-BE6B-42CB-A04A-1F18BF2A1F6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1333500" y="2624138"/>
-          <a:ext cx="11458575" cy="3438525"/>
+        <a:xfrm>
+          <a:off x="1341120" y="5871210"/>
+          <a:ext cx="12222480" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2779,35 +2730,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="240" name=" Straight Arrow Connector 239">
+        <xdr:cNvPr id="368" name=" Straight Arrow Connector 367">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB6C712-EA5B-4AE8-A10D-35A0C1490868}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037CCAF5-06F8-461D-BDAB-AA4BA3131932}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1333500" y="6243638"/>
-          <a:ext cx="11458575" cy="1990725"/>
+        <a:xfrm flipV="1">
+          <a:off x="1341120" y="1840230"/>
+          <a:ext cx="12222480" cy="4206240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2836,35 +2787,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="241" name=" Straight Arrow Connector 240">
+        <xdr:cNvPr id="369" name=" Straight Arrow Connector 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508D716D-35A2-4DAC-8189-9D2B3FD13A08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F9458D-B084-4E49-80A6-9F130B4A2B8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1333500" y="814388"/>
-          <a:ext cx="11458575" cy="5610225"/>
+        <a:xfrm>
+          <a:off x="1341120" y="6221730"/>
+          <a:ext cx="12222480" cy="1577340"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2894,20 +2845,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="242" name=" Straight Arrow Connector 241">
+        <xdr:cNvPr id="370" name=" Straight Arrow Connector 369">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60BF72-E08A-4BC5-A0CC-669352A48D57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6B36BC-B354-4E9A-A7BE-6C1B1D325139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2915,13 +2866,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="6605588"/>
-          <a:ext cx="11458575" cy="1266825"/>
+          <a:off x="1341120" y="6396990"/>
+          <a:ext cx="12222480" cy="1051560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2950,21 +2901,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="243" name=" Straight Arrow Connector 242">
+        <xdr:cNvPr id="371" name=" Straight Arrow Connector 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C09CCC-8887-41BA-AFF1-A42430CF351D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006169E6-D798-48F4-90A8-DAA4FAAA1ACE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2972,13 +2923,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="3167063"/>
-          <a:ext cx="11458575" cy="3619500"/>
+          <a:off x="1341120" y="4644390"/>
+          <a:ext cx="12222480" cy="1927860"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3007,21 +2958,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="244" name=" Straight Arrow Connector 243">
+        <xdr:cNvPr id="372" name=" Straight Arrow Connector 371">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F62C9C-CB8E-417E-9513-A08C3C8EBCBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B2C7D3-71B4-479B-BA6D-314530B559AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,13 +2980,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="995363"/>
-          <a:ext cx="11458575" cy="5972175"/>
+          <a:off x="1341120" y="1139190"/>
+          <a:ext cx="12222480" cy="5608320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3065,20 +3016,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="245" name=" Straight Arrow Connector 244">
+        <xdr:cNvPr id="373" name=" Straight Arrow Connector 372">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678534DF-4AD5-452B-93CB-8CC9E6E22A2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD081AC5-F68E-45C3-951B-8CD994AC59CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,13 +3037,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="7148513"/>
-          <a:ext cx="11458575" cy="1809750"/>
+          <a:off x="1341120" y="6922770"/>
+          <a:ext cx="12222480" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3122,20 +3073,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="246" name=" Straight Arrow Connector 245">
+        <xdr:cNvPr id="374" name=" Straight Arrow Connector 373">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1B62CB-C4FE-483B-AA7C-0E39C821CDEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D376D15F-53D9-4F91-806C-15D5E1581659}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,13 +3094,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="5338763"/>
-          <a:ext cx="11458575" cy="1990725"/>
+          <a:off x="1341120" y="5170170"/>
+          <a:ext cx="12222480" cy="1927860"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3178,21 +3129,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="247" name=" Straight Arrow Connector 246">
+        <xdr:cNvPr id="375" name=" Straight Arrow Connector 374">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBB3B9F-FAB2-41E6-881B-C8C8CC6874A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89F79C6-0341-4E17-97A6-693638E337B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3200,13 +3151,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="4433888"/>
-          <a:ext cx="11458575" cy="3076575"/>
+          <a:off x="1341120" y="2190750"/>
+          <a:ext cx="12222480" cy="5082540"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3235,21 +3186,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="248" name=" Straight Arrow Connector 247">
+        <xdr:cNvPr id="376" name=" Straight Arrow Connector 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F43507F-6DEF-4A54-912D-DF4859C7041A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31841D01-1143-4692-8186-8196166650CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3257,13 +3208,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="4071938"/>
-          <a:ext cx="11458575" cy="3619500"/>
+          <a:off x="1341120" y="438150"/>
+          <a:ext cx="12222480" cy="7010400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3292,21 +3243,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="249" name=" Straight Arrow Connector 248">
+        <xdr:cNvPr id="377" name=" Straight Arrow Connector 376">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A7A24D-3DA7-4315-A45E-7F375B21853A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03FE1DDA-5E70-488F-9045-26777B43D2FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3314,13 +3265,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="5881688"/>
-          <a:ext cx="11458575" cy="1990725"/>
+          <a:off x="1341120" y="3943350"/>
+          <a:ext cx="12222480" cy="3680460"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3349,35 +3300,35 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="250" name=" Straight Arrow Connector 249">
+        <xdr:cNvPr id="378" name=" Straight Arrow Connector 377">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC49E5C3-50C1-4670-BEF0-F110D2E1AA16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB730D46-1AB1-431A-9E8A-64E9F0076383}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1333500" y="3529013"/>
-          <a:ext cx="11458575" cy="4524375"/>
+        <a:xfrm>
+          <a:off x="1341120" y="7799070"/>
+          <a:ext cx="12222480" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3407,20 +3358,20 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="251" name=" Straight Arrow Connector 250">
+        <xdr:cNvPr id="379" name=" Straight Arrow Connector 378">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B74DDC1-A835-4C3F-8314-7405F086D401}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93838A4-9E91-44A6-BC18-33112749A510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,13 +3379,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="8234363"/>
-          <a:ext cx="11458575" cy="361950"/>
+          <a:off x="1341120" y="7974330"/>
+          <a:ext cx="12222480" cy="701040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3463,21 +3414,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="252" name=" Straight Arrow Connector 251">
+        <xdr:cNvPr id="380" name=" Straight Arrow Connector 379">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FB5721-5C85-46CC-A8EE-8236EF10B8A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C202A7BD-CA3C-4515-B946-3EC99CE3CE2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,13 +3436,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="2262188"/>
-          <a:ext cx="11458575" cy="6153150"/>
+          <a:off x="1341120" y="5695950"/>
+          <a:ext cx="12222480" cy="2453640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3520,21 +3471,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="253" name=" Straight Arrow Connector 252">
+        <xdr:cNvPr id="381" name=" Straight Arrow Connector 380">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26EDF246-A0AB-4C39-B8B7-D487C6A446AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB9F150-B009-4416-A0CC-4EDDF339FFC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3542,13 +3493,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="1357313"/>
-          <a:ext cx="11458575" cy="7239000"/>
+          <a:off x="1341120" y="4994910"/>
+          <a:ext cx="12222480" cy="3329940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3577,21 +3528,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="254" name=" Straight Arrow Connector 253">
+        <xdr:cNvPr id="382" name=" Straight Arrow Connector 381">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49EDA23-C864-4FE7-8660-A697AEB18E5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C278C7E-E6B2-4580-A6C9-F11CDF7CBA7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,13 +3550,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="4614863"/>
-          <a:ext cx="11458575" cy="4162425"/>
+          <a:off x="1341120" y="7974330"/>
+          <a:ext cx="12222480" cy="525780"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3634,21 +3585,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="255" name=" Straight Arrow Connector 254">
+        <xdr:cNvPr id="383" name=" Straight Arrow Connector 382">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4BB217-1D27-4E18-B098-0D009A923104}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBDF6BF-B0DD-4F7B-B3A7-F439A0A1F81C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3656,13 +3607,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="6424613"/>
-          <a:ext cx="11458575" cy="2533650"/>
+          <a:off x="1341120" y="4819650"/>
+          <a:ext cx="12222480" cy="3855720"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3691,21 +3642,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="256" name=" Straight Arrow Connector 255">
+        <xdr:cNvPr id="384" name=" Straight Arrow Connector 383">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA1DDD8-E16E-4DFE-9CAD-6FE6CF5B1AEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8CE1AD-9E91-43D5-98D5-790F0BFCDC1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3713,13 +3664,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1333500" y="4252913"/>
-          <a:ext cx="11458575" cy="4886325"/>
+          <a:off x="1341120" y="2541270"/>
+          <a:ext cx="12222480" cy="6309360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="3175">
+        <a:ln w="6350">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3748,7 +3699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4046,918 +3997,903 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2597D7-7076-4CD2-B8EC-F31BDCEDB4BE}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="5" width="16.125" customWidth="1"/>
+    <col min="3" max="5" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>161</v>
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C8 C50:C1048576 C10:C48">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E8 A10:E1048576 A9:B9 D9:E9">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -4967,631 +4903,660 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCB6EB2-4FAE-4820-A231-E44F3DD3BF0E}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="151.25" customWidth="1"/>
-    <col min="4" max="4" width="1.625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="62.8984375" customWidth="1"/>
+    <col min="4" max="4" width="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="1">
+        <f t="shared" ref="G1:G32" ca="1" si="0">RAND()</f>
+        <v>0.31296147707879374</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6.8048530509196792E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="1">
-        <v>9.5569999999999995E-3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0.59336299999999997</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>167</v>
       </c>
       <c r="G2" s="1">
-        <v>2.6117000000000001E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7111721992926876E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>0.35753200000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.8875130225198089E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G3" s="1">
-        <v>6.8176E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92863920891610741</v>
       </c>
       <c r="H3" s="1">
-        <v>2.9590000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.9816791669671474E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G4" s="1">
-        <v>9.0453000000000006E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89884388479073618</v>
       </c>
       <c r="H4" s="1">
-        <v>0.73766500000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.10480019762952908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="G5" s="1">
-        <v>9.6669000000000005E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61720679327723005</v>
       </c>
       <c r="H5" s="1">
-        <v>0.86723300000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.12730598530823556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G6" s="1">
-        <v>0.108821</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7272957079280028</v>
       </c>
       <c r="H6" s="1">
-        <v>0.54227800000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.13483506969159686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G7" s="1">
-        <v>0.13807</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26297213563457711</v>
       </c>
       <c r="H7" s="1">
-        <v>0.91023100000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.14122028713566059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="G8" s="1">
-        <v>0.15937499999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9831338454227021E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.77843499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.1559977719280965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G9" s="1">
-        <v>0.17419399999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5712337158315437E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>0.66705300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.15712807132261875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G10" s="1">
-        <v>0.187084</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72265223766143338</v>
       </c>
       <c r="H10" s="1">
-        <v>1.2939000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.17965240646675962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>11</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="G11" s="1">
-        <v>0.18939900000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93049023270418474</v>
       </c>
       <c r="H11" s="1">
-        <v>0.29998000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.18716081701116283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>12</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="G12" s="1">
-        <v>0.19558200000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62177392270334386</v>
       </c>
       <c r="H12" s="1">
-        <v>0.133711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.1949766718285415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>13</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G13" s="1">
-        <v>0.209845</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6539733626470672E-2</v>
       </c>
       <c r="H13" s="1">
-        <v>0.66653099999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.20952233503120365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>14</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G14" s="1">
-        <v>0.214222</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76108222492096023</v>
       </c>
       <c r="H14" s="1">
-        <v>0.42709200000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.24482221283295658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
         <v>15</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G15" s="1">
-        <v>0.216808</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78464513556662829</v>
       </c>
       <c r="H15" s="1">
-        <v>0.22156300000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.24559968650007991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>16</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G16" s="1">
-        <v>0.26250200000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37521560868909354</v>
       </c>
       <c r="H16" s="1">
-        <v>0.52225900000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.25073282442393618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>17</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="G17" s="1">
-        <v>0.28973599999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37598865102054624</v>
       </c>
       <c r="H17" s="1">
-        <v>0.51150399999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.27801754879500939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G18" s="1">
-        <v>0.312274</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88741983250037426</v>
       </c>
       <c r="H18" s="1">
-        <v>0.65310000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.28035457718514645</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>19</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G19" s="1">
-        <v>0.357881</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14656885973427991</v>
       </c>
       <c r="H19" s="1">
-        <v>0.97546299999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.32357066844301263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="G20" s="1">
-        <v>0.36780099999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37340842079549752</v>
       </c>
       <c r="H20" s="1">
-        <v>0.187838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.34166220035648154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
         <v>21</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G21" s="1">
-        <v>0.38370100000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95686987252739142</v>
       </c>
       <c r="H21" s="1">
-        <v>0.170206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.3661954191297917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1">
         <v>22</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G22" s="1">
-        <v>0.39233699999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6205901225196966E-2</v>
       </c>
       <c r="H22" s="1">
-        <v>0.76291799999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.37729436125086258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1">
         <v>23</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G23" s="1">
-        <v>0.409827</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39514955384465333</v>
       </c>
       <c r="H23" s="1">
-        <v>0.46816600000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.39155098317754544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G24" s="1">
-        <v>0.44109300000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69143795112747375</v>
       </c>
       <c r="H24" s="1">
-        <v>0.28995599999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.39179850784435211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
         <v>25</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="G25" s="1">
-        <v>0.457783</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23600477122437857</v>
       </c>
       <c r="H25" s="1">
-        <v>0.56745999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.40828477247300954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1">
         <v>26</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="G26" s="1">
-        <v>0.48119899999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32946295242833312</v>
       </c>
       <c r="H26" s="1">
-        <v>0.53660200000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.45798189551406598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1">
         <v>27</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G27" s="1">
-        <v>0.48611399999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42413811543418922</v>
       </c>
       <c r="H27" s="1">
-        <v>0.66219099999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.48303054456314776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1">
         <v>28</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="G28" s="1">
-        <v>0.49688199999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73125194759270817</v>
       </c>
       <c r="H28" s="1">
-        <v>0.74443000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.54028988674461143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1">
         <v>29</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="G29" s="1">
-        <v>0.50843400000000005</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72279490138466373</v>
       </c>
       <c r="H29" s="1">
-        <v>0.31467099999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.54073936688769553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1">
         <v>30</v>
@@ -5601,81 +5566,85 @@
         <v>41</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G30" s="1">
-        <v>0.55595099999999997</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10180444744066375</v>
       </c>
       <c r="H30" s="1">
-        <v>0.85590599999999994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.54977268562467496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G31" s="1">
-        <v>0.57794599999999996</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64855318833240982</v>
       </c>
       <c r="H31" s="1">
-        <v>0.97891700000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.57615897932282734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1">
         <v>32</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="G32" s="1">
-        <v>0.59118599999999999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1070920868608447</v>
       </c>
       <c r="H32" s="1">
-        <v>0.75345300000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.60556048492173553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1">
         <v>33</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G33" s="1">
-        <v>0.60570199999999996</v>
+        <f t="shared" ref="G33:G51" ca="1" si="1">RAND()</f>
+        <v>0.62309598208666894</v>
       </c>
       <c r="H33" s="1">
-        <v>0.98184400000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.60663772925937742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1">
         <v>34</v>
@@ -5685,373 +5654,394 @@
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G34" s="1">
-        <v>0.64244900000000005</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14193401515442206</v>
       </c>
       <c r="H34" s="1">
-        <v>0.74319100000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.64603522434629934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1">
         <v>35</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G35" s="1">
-        <v>0.64453499999999997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89906008700140316</v>
       </c>
       <c r="H35" s="1">
-        <v>2.4951000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.68103592328964679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1">
         <v>36</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G36" s="1">
-        <v>0.65108100000000002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77631899068561816</v>
       </c>
       <c r="H36" s="1">
-        <v>0.69959400000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.69866619250760353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1">
         <v>37</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G37" s="1">
-        <v>0.66969100000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51802832467377347</v>
       </c>
       <c r="H37" s="1">
-        <v>0.72267700000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.72250305680369631</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1">
         <v>38</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G38" s="1">
-        <v>0.67709600000000003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59014030414338292</v>
       </c>
       <c r="H38" s="1">
-        <v>0.45091999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.72750691706803128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1">
         <v>39</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="G39" s="1">
-        <v>0.69379299999999999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36975513021999906</v>
       </c>
       <c r="H39" s="1">
-        <v>0.75873199999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.73281737552956461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B40" s="1">
         <v>40</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G40" s="1">
-        <v>0.740282</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48300935720717675</v>
       </c>
       <c r="H40" s="1">
-        <v>9.1629000000000002E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.76386821239947655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1">
         <v>41</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="G41" s="1">
-        <v>0.74056299999999997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30427519346626397</v>
       </c>
       <c r="H41" s="1">
-        <v>0.30351499999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.76750101323008157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1">
         <v>42</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="G42" s="1">
-        <v>0.747417</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65648491526101771</v>
       </c>
       <c r="H42" s="1">
-        <v>0.89901500000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.77141308415229426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1">
         <v>43</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="G43" s="1">
-        <v>0.74952099999999999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.74045175195181079</v>
       </c>
       <c r="H43" s="1">
-        <v>0.61013399999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.79352260605295943</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1">
         <v>44</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1">
-        <v>37</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>189</v>
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G44" s="1">
-        <v>0.78667600000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24871489953490755</v>
       </c>
       <c r="H44" s="1">
-        <v>0.75785000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.82031002851681356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B45" s="1">
         <v>45</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G45" s="1">
-        <v>0.80218900000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70981470296466442</v>
       </c>
       <c r="H45" s="1">
-        <v>0.210262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.83673845734097219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1">
         <v>46</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G46" s="1">
-        <v>0.862066</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33141397440924958</v>
       </c>
       <c r="H46" s="1">
-        <v>0.61258000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.83812787654731968</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1">
         <v>47</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G47" s="1">
-        <v>0.86240399999999995</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.5658971448397172</v>
       </c>
       <c r="H47" s="1">
-        <v>3.9896000000000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.8948803984237641</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="B48" s="1">
         <v>48</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G48" s="1">
-        <v>0.91784900000000003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2914797009793717E-2</v>
       </c>
       <c r="H48" s="1">
-        <v>3.3716000000000003E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.95993314987325362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1">
         <v>49</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>173</v>
       </c>
       <c r="G49" s="1">
-        <v>0.92724700000000004</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34279782720317431</v>
       </c>
       <c r="H49" s="1">
-        <v>0.67313199999999995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.99491180999647399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1">
         <v>50</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G50" s="1">
-        <v>0.93743799999999999</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.0737209812377375E-2</v>
       </c>
       <c r="H50" s="1">
-        <v>0.83579899999999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.99598696087581373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1">
         <v>51</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G51" s="1">
-        <v>0.962673</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.73616952414562065</v>
       </c>
       <c r="H51" s="1">
-        <v>0.11393499999999999</v>
+        <v>0.99969783865016437</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:H51">
+    <sortCondition ref="H1:H51"/>
+  </sortState>
   <conditionalFormatting sqref="C59">
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
@@ -6081,309 +6071,309 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>_xlfn.CONCAT(DATA!B2, " &gt; ", DATA!C2)</f>
         <v>youtube.com &gt; 172.217.10.14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(DATA!B3, " &gt; ", DATA!C3)</f>
         <v>apple.com &gt; 17.253.144.10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>_xlfn.CONCAT(DATA!B4, " &gt; ", DATA!C4)</f>
         <v>google.com &gt; 172.217.10.78</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>_xlfn.CONCAT(DATA!B5, " &gt; ", DATA!C5)</f>
         <v>microsoft.com &gt; 104.215.148.63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT(DATA!B6, " &gt; ", DATA!C6)</f>
         <v>cloudflare.com &gt; 104.16.132.229</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>_xlfn.CONCAT(DATA!B7, " &gt; ", DATA!C7)</f>
         <v>khaosod.co.th &gt; 172.67.203.26</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>_xlfn.CONCAT(DATA!B8, " &gt; ", DATA!C8)</f>
         <v>twitter.com &gt; 104.244.42.129</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(DATA!B9, " &gt; ", DATA!C9)</f>
         <v>roblox.com &gt; 128.116.114.3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT(DATA!B10, " &gt; ", DATA!C10)</f>
         <v>linkedin.com &gt; 108.174.10.10</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT(DATA!B11, " &gt; ", DATA!C11)</f>
         <v>adobe.com &gt; 192.147.130.204</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT(DATA!B12, " &gt; ", DATA!C12)</f>
         <v>wordpress.org &gt; 198.143.164.252</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT(DATA!B13, " &gt; ", DATA!C13)</f>
         <v>wikipedia.org &gt; 208.80.154.224</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>_xlfn.CONCAT(DATA!B14, " &gt; ", DATA!C14)</f>
         <v>mozilla.org &gt; 44.236.72.93</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>_xlfn.CONCAT(DATA!B15, " &gt; ", DATA!C15)</f>
         <v>cytron.io &gt; 104.26.3.180</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>_xlfn.CONCAT(DATA!B16, " &gt; ", DATA!C16)</f>
         <v>lazada.co.th &gt; 47.89.75.205</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>_xlfn.CONCAT(DATA!B17, " &gt; ", DATA!C17)</f>
         <v>pantip.com &gt; 139.99.68.204</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>_xlfn.CONCAT(DATA!B18, " &gt; ", DATA!C18)</f>
         <v>shopee.co.th &gt; 103.120.246.129</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT(DATA!B19, " &gt; ", DATA!C19)</f>
         <v>ku.ac.th &gt; 158.108.216.5</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>_xlfn.CONCAT(DATA!B20, " &gt; ", DATA!C20)</f>
         <v>aliexpress.com &gt; 198.11.132.250</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>_xlfn.CONCAT(DATA!B21, " &gt; ", DATA!C21)</f>
         <v>vimeo.com &gt; 151.101.64.217</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>_xlfn.CONCAT(DATA!B22, " &gt; ", DATA!C22)</f>
         <v>cnn.com &gt; 151.101.129.67</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>_xlfn.CONCAT(DATA!B23, " &gt; ", DATA!C23)</f>
         <v>github.com &gt; 140.82.114.4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>_xlfn.CONCAT(DATA!B24, " &gt; ", DATA!C24)</f>
         <v>netflix.com &gt; 54.165.16.47</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>_xlfn.CONCAT(DATA!B25, " &gt; ", DATA!C25)</f>
         <v>kaidee.com &gt; 18.139.187.77</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>_xlfn.CONCAT(DATA!B26, " &gt; ", DATA!C26)</f>
         <v>samsung.com &gt; 211.45.27.231</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>_xlfn.CONCAT(DATA!B27, " &gt; ", DATA!C27)</f>
         <v>facebook.com &gt; 157.240.0.35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>_xlfn.CONCAT(DATA!B28, " &gt; ", DATA!C28)</f>
         <v>agoda.com &gt; 103.6.182.20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>_xlfn.CONCAT(DATA!B29, " &gt; ", DATA!C29)</f>
         <v>bbc.co.uk &gt; 151.101.0.81</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT(DATA!B30, " &gt; ", DATA!C30)</f>
         <v>amazon.com &gt; 176.32.103.205</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>_xlfn.CONCAT(DATA!B31, " &gt; ", DATA!C31)</f>
         <v>line.me &gt; 203.104.138.138</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>_xlfn.CONCAT(DATA!B32, " &gt; ", DATA!C32)</f>
         <v>vk.com &gt; 87.240.190.78</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>_xlfn.CONCAT(DATA!B33, " &gt; ", DATA!C33)</f>
         <v>paypal.com &gt; 64.4.250.37</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>_xlfn.CONCAT(DATA!B34, " &gt; ", DATA!C34)</f>
         <v>sanook.com &gt; 203.151.133.212</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>_xlfn.CONCAT(DATA!B35, " &gt; ", DATA!C35)</f>
         <v>msn.com &gt; 13.82.28.61</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>_xlfn.CONCAT(DATA!B36, " &gt; ", DATA!C36)</f>
         <v>dek-d.com &gt; 61.47.47.112</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>_xlfn.CONCAT(DATA!B37, " &gt; ", DATA!C37)</f>
         <v>instagram.com &gt; 3.226.99.60</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>_xlfn.CONCAT(DATA!B38, " &gt; ", DATA!C38)</f>
         <v>whatsapp.com &gt; 31.13.66.56</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>_xlfn.CONCAT(DATA!B39, " &gt; ", DATA!C39)</f>
         <v>thairath.co.th &gt; 167.114.156.121</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>_xlfn.CONCAT(DATA!B40, " &gt; ", DATA!C40)</f>
         <v>pinterest.com &gt; 151.101.0.84</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>_xlfn.CONCAT(DATA!B41, " &gt; ", DATA!C41)</f>
         <v>opera.com &gt; 185.26.182.104</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>_xlfn.CONCAT(DATA!B42, " &gt; ", DATA!C42)</f>
         <v>tiktok.com &gt; 130.44.212.184</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>_xlfn.CONCAT(DATA!B43, " &gt; ", DATA!C43)</f>
         <v>yahoo.com &gt; 74.6.231.20</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>_xlfn.CONCAT(DATA!B44, " &gt; ", DATA!C44)</f>
         <v>imdb.com &gt; 52.94.225.248</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>_xlfn.CONCAT(DATA!B45, " &gt; ", DATA!C45)</f>
         <v>wongnai.com &gt; 52.76.114.113</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>_xlfn.CONCAT(DATA!B46, " &gt; ", DATA!C46)</f>
         <v>reuters.com &gt; 52.2.61.110</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>_xlfn.CONCAT(DATA!B47, " &gt; ", DATA!C47)</f>
         <v>viu.com &gt; 13.226.38.91</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>_xlfn.CONCAT(DATA!B48, " &gt; ", DATA!C48)</f>
         <v>w3.org &gt; 128.30.52.100</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT(DATA!B49, " &gt; ", DATA!C49)</f>
         <v>matichon.co.th &gt; 104.27.204.89</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT(DATA!B50, " &gt; ", DATA!C50)</f>
         <v>gstatic.com &gt; 172.217.7.3</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>_xlfn.CONCAT(DATA!B51, " &gt; ", DATA!C51)</f>
         <v>mail.google.com &gt; 172.217.10.101</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>_xlfn.CONCAT(DATA!B52, " &gt; ", DATA!C52)</f>
         <v>cpe.ku.ac.th &gt; 158.108.32.150</v>
